--- a/CLAVES GEOMÁTICA.xlsx
+++ b/CLAVES GEOMÁTICA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="GEOMÁTICA" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GEOMÁTICA!$A$1:$Q$69</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="139">
   <si>
     <t>CLAVE DGAE</t>
   </si>
@@ -414,12 +414,42 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>TOPOGRAFÍA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA SANITARIA Y AMBIENTAL</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>GEODESIA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>TOPOLOGÍA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -481,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -561,12 +591,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,6 +674,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,20 +967,22 @@
   </sheetPr>
   <dimension ref="A1:YD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="8" max="8" width="61.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="43" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:654" ht="33.75" x14ac:dyDescent="0.25">
@@ -990,6 +1037,9 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1043,6 +1093,9 @@
       <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="R2" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1096,6 +1149,9 @@
       <c r="Q3" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="R3" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1150,6 +1206,9 @@
         <v>22</v>
       </c>
       <c r="R4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1205,6 +1264,9 @@
       <c r="Q5" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="R5" s="24" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:654" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1258,7 +1320,9 @@
       <c r="Q6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="24" t="s">
+        <v>138</v>
+      </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -1948,7 +2012,9 @@
       <c r="Q7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="21"/>
+      <c r="R7" s="24" t="s">
+        <v>138</v>
+      </c>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -2639,6 +2705,9 @@
         <v>81</v>
       </c>
       <c r="R8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2694,6 +2763,9 @@
       <c r="Q9" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="R9" s="24" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2747,6 +2819,9 @@
       <c r="Q10" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="R10" s="24" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2800,6 +2875,9 @@
       <c r="Q11" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="R11" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2853,6 +2931,9 @@
       <c r="Q12" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="R12" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2906,6 +2987,9 @@
       <c r="Q13" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="R13" s="24" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -2959,6 +3043,9 @@
       <c r="Q14" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="R14" s="24" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3012,6 +3099,9 @@
       <c r="Q15" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="R15" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:654" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -3065,8 +3155,11 @@
       <c r="Q16" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -3118,8 +3211,11 @@
       <c r="Q17" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -3171,11 +3267,14 @@
       <c r="Q18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -3227,8 +3326,11 @@
       <c r="Q19" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
@@ -3280,8 +3382,11 @@
       <c r="Q20" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3333,8 +3438,11 @@
       <c r="Q21" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3386,8 +3494,11 @@
       <c r="Q22" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -3439,11 +3550,14 @@
       <c r="Q23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S23" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -3495,11 +3609,14 @@
       <c r="Q24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>33</v>
       </c>
@@ -3551,8 +3668,11 @@
       <c r="Q25" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -3605,10 +3725,13 @@
         <v>36</v>
       </c>
       <c r="R26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
@@ -3660,8 +3783,11 @@
       <c r="Q27" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -3713,11 +3839,14 @@
       <c r="Q28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S28" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
@@ -3769,8 +3898,11 @@
       <c r="Q29" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
@@ -3822,8 +3954,11 @@
       <c r="Q30" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -3875,8 +4010,11 @@
       <c r="Q31" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -3928,8 +4066,11 @@
       <c r="Q32" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -3981,11 +4122,14 @@
       <c r="Q33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4037,8 +4181,11 @@
       <c r="Q34" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -4090,8 +4237,11 @@
       <c r="Q35" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -4143,8 +4293,11 @@
       <c r="Q36" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -4196,8 +4349,11 @@
       <c r="Q37" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -4249,8 +4405,11 @@
       <c r="Q38" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
@@ -4302,8 +4461,11 @@
       <c r="Q39" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -4355,11 +4517,14 @@
       <c r="Q40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="S40" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -4411,8 +4576,11 @@
       <c r="Q41" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>33</v>
       </c>
@@ -4464,8 +4632,11 @@
       <c r="Q42" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>33</v>
       </c>
@@ -4517,8 +4688,11 @@
       <c r="Q43" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
@@ -4570,8 +4744,11 @@
       <c r="Q44" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>33</v>
       </c>
@@ -4623,8 +4800,11 @@
       <c r="Q45" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -4676,8 +4856,11 @@
       <c r="Q46" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="Q47" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -4782,8 +4968,11 @@
       <c r="Q48" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>33</v>
       </c>
@@ -4835,11 +5024,14 @@
       <c r="Q49" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="25" t="s">
+      <c r="R49" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="S49" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>33</v>
       </c>
@@ -4891,8 +5083,11 @@
       <c r="Q50" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
@@ -4944,8 +5139,11 @@
       <c r="Q51" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>33</v>
       </c>
@@ -4997,8 +5195,11 @@
       <c r="Q52" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>33</v>
       </c>
@@ -5050,11 +5251,14 @@
       <c r="Q53" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="R53" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="S53" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>33</v>
       </c>
@@ -5106,8 +5310,11 @@
       <c r="Q54" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>33</v>
       </c>
@@ -5159,8 +5366,11 @@
       <c r="Q55" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>33</v>
       </c>
@@ -5212,8 +5422,11 @@
       <c r="Q56" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>33</v>
       </c>
@@ -5266,10 +5479,13 @@
         <v>36</v>
       </c>
       <c r="R57" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S57" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>33</v>
       </c>
@@ -5321,8 +5537,11 @@
       <c r="Q58" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>33</v>
       </c>
@@ -5374,8 +5593,11 @@
       <c r="Q59" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>33</v>
       </c>
@@ -5427,8 +5649,11 @@
       <c r="Q60" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
@@ -5480,8 +5705,11 @@
       <c r="Q61" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>33</v>
       </c>
@@ -5533,8 +5761,11 @@
       <c r="Q62" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>33</v>
       </c>
@@ -5586,8 +5817,11 @@
       <c r="Q63" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>33</v>
       </c>
@@ -5639,8 +5873,11 @@
       <c r="Q64" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>33</v>
       </c>
@@ -5692,8 +5929,11 @@
       <c r="Q65" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>33</v>
       </c>
@@ -5745,8 +5985,11 @@
       <c r="Q66" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="Q67" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>33</v>
       </c>
@@ -5851,8 +6097,11 @@
       <c r="Q68" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>33</v>
       </c>
@@ -5904,9 +6153,11 @@
       <c r="Q69" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="R69" s="28" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q69"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CLAVES GEOMÁTICA.xlsx
+++ b/CLAVES GEOMÁTICA.xlsx
@@ -968,7 +968,7 @@
   <dimension ref="A1:YD69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
